--- a/References.xlsx
+++ b/References.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Pricing dysfunction detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baazzouzA\Documents\Pricing Dysfunction detection\PROD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B815DDA-EB3C-43AC-89CC-CCDA0495A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FA5076-675B-4531-83A9-7987FC1960C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>code_operation</t>
   </si>
@@ -37,13 +37,46 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>Dynamic Classic</t>
+  </si>
+  <si>
+    <t>Signature Infinite CCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Titanium </t>
+  </si>
+  <si>
+    <t>Signature Platinium CCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Gold </t>
+  </si>
+  <si>
+    <t>Signature Infinite CEDC</t>
+  </si>
+  <si>
+    <t>Signature Gold</t>
+  </si>
+  <si>
+    <t>Signature Titanium</t>
+  </si>
+  <si>
+    <t>Signature Platinium CEDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +84,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +124,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,22 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -415,55 +491,56 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>112</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>459</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>698</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>567</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -472,21 +549,204 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>112</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/References.xlsx
+++ b/References.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baazzouzA\Documents\Pricing Dysfunction detection\PROD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Pricing dysfunction detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FA5076-675B-4531-83A9-7987FC1960C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AEBFA0-597C-4E67-A0A6-87C1CC9B2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>code_operation</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>062</t>
   </si>
   <si>
     <t>Dynamic Classic</t>
@@ -145,13 +139,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,18 +462,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -491,252 +487,252 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>393</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>393</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>393</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>393</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>393</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>393</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>393</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>393</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>393</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C19">
         <v>0</v>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Pricing dysfunction detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AEBFA0-597C-4E67-A0A6-87C1CC9B2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E3AC6-22E6-4436-8568-BE79A301E03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$553</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="13">
   <si>
     <t>code_operation</t>
   </si>
@@ -82,6 +85,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -137,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -145,7 +149,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,22 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="26.26953125" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -490,7 +491,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>393</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -504,7 +505,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -518,7 +519,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>393</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -532,7 +533,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>393</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -546,7 +547,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>393</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -560,7 +561,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>393</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -574,7 +575,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>393</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -588,7 +589,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>393</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -602,7 +603,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -616,7 +617,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -630,7 +631,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -644,7 +645,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -658,7 +659,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -672,7 +673,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -686,7 +687,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -700,7 +701,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -714,7 +715,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -728,7 +729,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -741,7 +742,7484 @@
         <v>33</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>846</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>990</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>987</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>974</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>969</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>954</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>927</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>867</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>849</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>839</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>801</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>781</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>780</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>733</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>700</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>679</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>604</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>564</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>509</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>449</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>445</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>391</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>361</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>348</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>347</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>346</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>344</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>283</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>281</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>280</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>279</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>276</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>258</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>252</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>200</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>199</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>149</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>130</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>123</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>113</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>111</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>110</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>108</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>105</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>104</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>102</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>846</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>990</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>987</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>974</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>969</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>954</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>927</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>867</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>849</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>839</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>801</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>781</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>780</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>733</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>700</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>679</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>604</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>564</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>509</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>449</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>445</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>391</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>361</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>348</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>347</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>346</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>344</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>283</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>281</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>280</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>279</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>276</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>258</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>257</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>252</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>200</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>199</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>149</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>139</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>129</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>128</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>127</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>121</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>113</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>111</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>110</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>108</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>105</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>104</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>103</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>102</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>78</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>50</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>72</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>846</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>990</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>987</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>974</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>969</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>954</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>927</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>867</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>849</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>839</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>801</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>781</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>780</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>733</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>700</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>679</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>604</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>564</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>509</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>449</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>445</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>391</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>361</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>348</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>347</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>346</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>344</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>283</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>281</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>280</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>279</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>276</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>258</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>257</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>252</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>200</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>199</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>149</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>141</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>139</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>130</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>129</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>128</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>127</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>123</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>121</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>113</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>111</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>110</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>108</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>105</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>104</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>103</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>102</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>78</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>50</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>72</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>846</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>990</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>987</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>974</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>969</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>954</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>927</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>867</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>849</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>839</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>801</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>781</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>780</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>733</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>700</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>679</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>604</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>564</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>509</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>449</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>445</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>391</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>361</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>348</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>347</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>346</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>344</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>283</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>281</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>280</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>279</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>276</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>258</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>257</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>252</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>200</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>199</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>149</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>147</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>141</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>139</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>130</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>129</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>128</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>127</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>123</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>121</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>113</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>111</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>110</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>108</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>105</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>104</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>103</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>102</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>78</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>50</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>72</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>846</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>990</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>987</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>974</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>969</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>954</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>927</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>867</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>849</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>839</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>801</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>781</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>780</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>733</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>700</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>679</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>604</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>564</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>509</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>449</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>445</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>391</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>361</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>348</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>347</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>346</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>344</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>283</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>280</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>279</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>276</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>258</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>257</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>252</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>200</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>199</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>149</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>147</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>141</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>139</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>130</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>129</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>128</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>127</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>123</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>121</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>113</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>111</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>110</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>108</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>105</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>104</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>103</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>102</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>78</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>50</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>72</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>846</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>990</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>987</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>974</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>969</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>954</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>927</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>867</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>849</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>839</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>801</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>781</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>780</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>733</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>700</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>679</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>604</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>564</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>509</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>449</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>445</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>391</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>361</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>348</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>347</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>346</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>344</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>283</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>281</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>280</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>279</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>276</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>258</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>257</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>252</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>200</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>199</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>149</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>147</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>141</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>139</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>130</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>129</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>128</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>127</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>123</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>121</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>113</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>111</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>110</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>108</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>105</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>104</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>103</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>102</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>78</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>50</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>72</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>846</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>990</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>987</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>974</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>969</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>954</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>927</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>867</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>849</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>839</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>801</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>781</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>780</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>733</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>700</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>679</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>604</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>564</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>509</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>449</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>445</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>361</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>348</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>347</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>346</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>344</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>283</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>281</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>280</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>279</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>276</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>258</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>257</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>252</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>200</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>199</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>149</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>147</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>141</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>139</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>130</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>129</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>128</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>127</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>123</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>121</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>113</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>111</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>110</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>108</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>105</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>104</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>103</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>102</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>78</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>50</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>72</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>846</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>990</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>987</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>974</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>969</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>954</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>927</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>867</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>849</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>839</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>801</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>781</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>780</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>733</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>700</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>679</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>604</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>564</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>509</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>449</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>445</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>391</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>361</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>348</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>347</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>346</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>344</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>283</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>281</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>280</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>279</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>276</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>258</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>257</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>252</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>200</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>199</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>149</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>147</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>141</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>139</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>130</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>129</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>128</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>127</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>123</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>121</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>113</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>111</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>110</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>108</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>105</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>104</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>103</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>102</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>78</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>50</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>72</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>846</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>990</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>987</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>974</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>969</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>954</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>927</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>867</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>849</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>839</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>801</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>781</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>780</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>733</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>700</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>679</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>604</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>564</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>509</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>449</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>445</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>391</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>361</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>348</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>347</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>346</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>344</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>283</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>281</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>280</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>279</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>276</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>258</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>257</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>252</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>200</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>199</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>149</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>147</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>141</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>139</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>130</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>129</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>128</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>127</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>123</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>121</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>113</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>111</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>110</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>108</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>105</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>104</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>103</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>102</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>78</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>166</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>166</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>166</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>166</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>166</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>166</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>167</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>167</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>167</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>167</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>167</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>167</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>16.5</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D553" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Pricing dysfunction detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E3AC6-22E6-4436-8568-BE79A301E03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC28A6-3E8B-4C52-85A3-A80CC755C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
   </bookViews>
@@ -42,38 +42,38 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Dynamic Classic</t>
+    <t>DG</t>
   </si>
   <si>
-    <t>Signature Infinite CCH</t>
+    <t>DC</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic Titanium </t>
+    <t>SICCH</t>
   </si>
   <si>
-    <t>Signature Platinium CCH</t>
+    <t>DT</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic Gold </t>
+    <t>SPCCH</t>
   </si>
   <si>
-    <t>Signature Infinite CEDC</t>
+    <t>SICEDC</t>
   </si>
   <si>
-    <t>Signature Gold</t>
+    <t>SG</t>
   </si>
   <si>
-    <t>Signature Titanium</t>
+    <t>ST</t>
   </si>
   <si>
-    <t>Signature Platinium CEDC</t>
+    <t>SPCEDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,39 +82,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,33 +104,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}">
-  <dimension ref="A1:K553"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +436,7 @@
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,14 +449,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>393</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -504,12 +464,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>393</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,12 +478,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>393</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -532,12 +492,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>393</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -546,12 +506,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>393</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -560,11 +520,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>393</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
@@ -574,11 +534,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>393</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
@@ -588,11 +548,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>393</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -602,11 +562,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>393</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
@@ -616,12 +576,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -630,12 +590,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -644,12 +604,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>62</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -658,12 +618,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -672,12 +632,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -686,11 +646,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
@@ -704,7 +664,7 @@
       <c r="A17">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17">
@@ -718,7 +678,7 @@
       <c r="A18">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18">
@@ -732,7 +692,7 @@
       <c r="A19">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
@@ -746,8 +706,8 @@
       <c r="A20">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
+      <c r="B20" t="s">
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -760,8 +720,8 @@
       <c r="A21">
         <v>72</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -774,8 +734,8 @@
       <c r="A22">
         <v>846</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -788,8 +748,8 @@
       <c r="A23">
         <v>990</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -802,8 +762,8 @@
       <c r="A24">
         <v>987</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -816,8 +776,8 @@
       <c r="A25">
         <v>974</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -830,8 +790,8 @@
       <c r="A26">
         <v>969</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -844,8 +804,8 @@
       <c r="A27">
         <v>954</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -858,8 +818,8 @@
       <c r="A28">
         <v>927</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -872,8 +832,8 @@
       <c r="A29">
         <v>867</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -886,8 +846,8 @@
       <c r="A30">
         <v>849</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -900,8 +860,8 @@
       <c r="A31">
         <v>839</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
+      <c r="B31" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -914,8 +874,8 @@
       <c r="A32">
         <v>801</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -928,8 +888,8 @@
       <c r="A33">
         <v>781</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -942,8 +902,8 @@
       <c r="A34">
         <v>780</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -956,8 +916,8 @@
       <c r="A35">
         <v>733</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -970,8 +930,8 @@
       <c r="A36">
         <v>700</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>8</v>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -984,8 +944,8 @@
       <c r="A37">
         <v>679</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -998,8 +958,8 @@
       <c r="A38">
         <v>604</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1012,8 +972,8 @@
       <c r="A39">
         <v>564</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1026,8 +986,8 @@
       <c r="A40">
         <v>509</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1040,8 +1000,8 @@
       <c r="A41">
         <v>449</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1054,8 +1014,8 @@
       <c r="A42">
         <v>445</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1068,8 +1028,8 @@
       <c r="A43">
         <v>391</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1082,8 +1042,8 @@
       <c r="A44">
         <v>361</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
+      <c r="B44" t="s">
+        <v>4</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1096,8 +1056,8 @@
       <c r="A45">
         <v>348</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
+      <c r="B45" t="s">
+        <v>4</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1110,8 +1070,8 @@
       <c r="A46">
         <v>347</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1124,8 +1084,8 @@
       <c r="A47">
         <v>346</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1138,8 +1098,8 @@
       <c r="A48">
         <v>344</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1152,8 +1112,8 @@
       <c r="A49">
         <v>283</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>4</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1166,8 +1126,8 @@
       <c r="A50">
         <v>281</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1180,8 +1140,8 @@
       <c r="A51">
         <v>280</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1194,8 +1154,8 @@
       <c r="A52">
         <v>279</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1208,8 +1168,8 @@
       <c r="A53">
         <v>276</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
+      <c r="B53" t="s">
+        <v>4</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1222,8 +1182,8 @@
       <c r="A54">
         <v>258</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1236,8 +1196,8 @@
       <c r="A55">
         <v>257</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1250,8 +1210,8 @@
       <c r="A56">
         <v>252</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1264,8 +1224,8 @@
       <c r="A57">
         <v>200</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1278,8 +1238,8 @@
       <c r="A58">
         <v>199</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1292,8 +1252,8 @@
       <c r="A59">
         <v>149</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>4</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1306,8 +1266,8 @@
       <c r="A60">
         <v>147</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
+      <c r="B60" t="s">
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1320,8 +1280,8 @@
       <c r="A61">
         <v>141</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1334,8 +1294,8 @@
       <c r="A62">
         <v>139</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1348,8 +1308,8 @@
       <c r="A63">
         <v>130</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1362,8 +1322,8 @@
       <c r="A64">
         <v>129</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1376,8 +1336,8 @@
       <c r="A65">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
+      <c r="B65" t="s">
+        <v>4</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1390,8 +1350,8 @@
       <c r="A66">
         <v>127</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>8</v>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1404,8 +1364,8 @@
       <c r="A67">
         <v>123</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1418,8 +1378,8 @@
       <c r="A68">
         <v>121</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>8</v>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1432,8 +1392,8 @@
       <c r="A69">
         <v>113</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>8</v>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1446,8 +1406,8 @@
       <c r="A70">
         <v>111</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>8</v>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1460,8 +1420,8 @@
       <c r="A71">
         <v>110</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>8</v>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1474,8 +1434,8 @@
       <c r="A72">
         <v>108</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>8</v>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1488,8 +1448,8 @@
       <c r="A73">
         <v>105</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1502,8 +1462,8 @@
       <c r="A74">
         <v>104</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>8</v>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1516,8 +1476,8 @@
       <c r="A75">
         <v>103</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>8</v>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1530,8 +1490,8 @@
       <c r="A76">
         <v>102</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>8</v>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1544,8 +1504,8 @@
       <c r="A77">
         <v>78</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1558,8 +1518,8 @@
       <c r="A78">
         <v>50</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
+      <c r="B78" t="s">
+        <v>5</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1572,8 +1532,8 @@
       <c r="A79">
         <v>72</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
+      <c r="B79" t="s">
+        <v>5</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1586,8 +1546,8 @@
       <c r="A80">
         <v>846</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
+      <c r="B80" t="s">
+        <v>5</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1600,8 +1560,8 @@
       <c r="A81">
         <v>990</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
+      <c r="B81" t="s">
+        <v>5</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1614,8 +1574,8 @@
       <c r="A82">
         <v>987</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
+      <c r="B82" t="s">
+        <v>5</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1628,8 +1588,8 @@
       <c r="A83">
         <v>974</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>4</v>
+      <c r="B83" t="s">
+        <v>5</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1642,8 +1602,8 @@
       <c r="A84">
         <v>969</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
+      <c r="B84" t="s">
+        <v>5</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1656,8 +1616,8 @@
       <c r="A85">
         <v>954</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
+      <c r="B85" t="s">
+        <v>5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1670,8 +1630,8 @@
       <c r="A86">
         <v>927</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
+      <c r="B86" t="s">
+        <v>5</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1684,8 +1644,8 @@
       <c r="A87">
         <v>867</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
+      <c r="B87" t="s">
+        <v>5</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1698,8 +1658,8 @@
       <c r="A88">
         <v>849</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>4</v>
+      <c r="B88" t="s">
+        <v>5</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1712,8 +1672,8 @@
       <c r="A89">
         <v>839</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>4</v>
+      <c r="B89" t="s">
+        <v>5</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1726,8 +1686,8 @@
       <c r="A90">
         <v>801</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
+      <c r="B90" t="s">
+        <v>5</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1740,8 +1700,8 @@
       <c r="A91">
         <v>781</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
+      <c r="B91" t="s">
+        <v>5</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1754,8 +1714,8 @@
       <c r="A92">
         <v>780</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>4</v>
+      <c r="B92" t="s">
+        <v>5</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1768,8 +1728,8 @@
       <c r="A93">
         <v>733</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>4</v>
+      <c r="B93" t="s">
+        <v>5</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1782,8 +1742,8 @@
       <c r="A94">
         <v>700</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>4</v>
+      <c r="B94" t="s">
+        <v>5</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1796,8 +1756,8 @@
       <c r="A95">
         <v>679</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
+      <c r="B95" t="s">
+        <v>5</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1810,8 +1770,8 @@
       <c r="A96">
         <v>604</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
+      <c r="B96" t="s">
+        <v>5</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1824,8 +1784,8 @@
       <c r="A97">
         <v>564</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>4</v>
+      <c r="B97" t="s">
+        <v>5</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1838,8 +1798,8 @@
       <c r="A98">
         <v>509</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
+      <c r="B98" t="s">
+        <v>5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1852,8 +1812,8 @@
       <c r="A99">
         <v>449</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
+      <c r="B99" t="s">
+        <v>5</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1866,8 +1826,8 @@
       <c r="A100">
         <v>445</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>4</v>
+      <c r="B100" t="s">
+        <v>5</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1880,8 +1840,8 @@
       <c r="A101">
         <v>391</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>4</v>
+      <c r="B101" t="s">
+        <v>5</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1894,8 +1854,8 @@
       <c r="A102">
         <v>361</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>4</v>
+      <c r="B102" t="s">
+        <v>5</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1908,8 +1868,8 @@
       <c r="A103">
         <v>348</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>4</v>
+      <c r="B103" t="s">
+        <v>5</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1922,8 +1882,8 @@
       <c r="A104">
         <v>347</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>4</v>
+      <c r="B104" t="s">
+        <v>5</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1936,8 +1896,8 @@
       <c r="A105">
         <v>346</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
+      <c r="B105" t="s">
+        <v>5</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1950,8 +1910,8 @@
       <c r="A106">
         <v>344</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
+      <c r="B106" t="s">
+        <v>5</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1964,8 +1924,8 @@
       <c r="A107">
         <v>283</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>4</v>
+      <c r="B107" t="s">
+        <v>5</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1978,8 +1938,8 @@
       <c r="A108">
         <v>281</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>4</v>
+      <c r="B108" t="s">
+        <v>5</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1992,8 +1952,8 @@
       <c r="A109">
         <v>280</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>4</v>
+      <c r="B109" t="s">
+        <v>5</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2006,8 +1966,8 @@
       <c r="A110">
         <v>279</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>4</v>
+      <c r="B110" t="s">
+        <v>5</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2020,8 +1980,8 @@
       <c r="A111">
         <v>276</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
+      <c r="B111" t="s">
+        <v>5</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2034,8 +1994,8 @@
       <c r="A112">
         <v>258</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
+      <c r="B112" t="s">
+        <v>5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2048,8 +2008,8 @@
       <c r="A113">
         <v>257</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>4</v>
+      <c r="B113" t="s">
+        <v>5</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2062,8 +2022,8 @@
       <c r="A114">
         <v>252</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
+      <c r="B114" t="s">
+        <v>5</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2076,8 +2036,8 @@
       <c r="A115">
         <v>200</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>4</v>
+      <c r="B115" t="s">
+        <v>5</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2090,8 +2050,8 @@
       <c r="A116">
         <v>199</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>4</v>
+      <c r="B116" t="s">
+        <v>5</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2104,8 +2064,8 @@
       <c r="A117">
         <v>149</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
+      <c r="B117" t="s">
+        <v>5</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2118,8 +2078,8 @@
       <c r="A118">
         <v>147</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
+      <c r="B118" t="s">
+        <v>5</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2132,8 +2092,8 @@
       <c r="A119">
         <v>141</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
+      <c r="B119" t="s">
+        <v>5</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2146,8 +2106,8 @@
       <c r="A120">
         <v>139</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>4</v>
+      <c r="B120" t="s">
+        <v>5</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2160,8 +2120,8 @@
       <c r="A121">
         <v>130</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>4</v>
+      <c r="B121" t="s">
+        <v>5</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2174,8 +2134,8 @@
       <c r="A122">
         <v>129</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
+      <c r="B122" t="s">
+        <v>5</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2188,8 +2148,8 @@
       <c r="A123">
         <v>128</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
+      <c r="B123" t="s">
+        <v>5</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2202,8 +2162,8 @@
       <c r="A124">
         <v>127</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
+      <c r="B124" t="s">
+        <v>5</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2216,8 +2176,8 @@
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>4</v>
+      <c r="B125" t="s">
+        <v>5</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2230,8 +2190,8 @@
       <c r="A126">
         <v>121</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>4</v>
+      <c r="B126" t="s">
+        <v>5</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2244,8 +2204,8 @@
       <c r="A127">
         <v>113</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>4</v>
+      <c r="B127" t="s">
+        <v>5</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2258,8 +2218,8 @@
       <c r="A128">
         <v>111</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>4</v>
+      <c r="B128" t="s">
+        <v>5</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2272,8 +2232,8 @@
       <c r="A129">
         <v>110</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>4</v>
+      <c r="B129" t="s">
+        <v>5</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2286,8 +2246,8 @@
       <c r="A130">
         <v>108</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
+      <c r="B130" t="s">
+        <v>5</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2300,8 +2260,8 @@
       <c r="A131">
         <v>105</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
+      <c r="B131" t="s">
+        <v>5</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2314,8 +2274,8 @@
       <c r="A132">
         <v>104</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>4</v>
+      <c r="B132" t="s">
+        <v>5</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2328,8 +2288,8 @@
       <c r="A133">
         <v>103</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>4</v>
+      <c r="B133" t="s">
+        <v>5</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2342,8 +2302,8 @@
       <c r="A134">
         <v>102</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>4</v>
+      <c r="B134" t="s">
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2356,8 +2316,8 @@
       <c r="A135">
         <v>78</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>4</v>
+      <c r="B135" t="s">
+        <v>5</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2370,8 +2330,8 @@
       <c r="A136">
         <v>50</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
+      <c r="B136" t="s">
+        <v>6</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2384,8 +2344,8 @@
       <c r="A137">
         <v>72</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>5</v>
+      <c r="B137" t="s">
+        <v>6</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2398,8 +2358,8 @@
       <c r="A138">
         <v>846</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>5</v>
+      <c r="B138" t="s">
+        <v>6</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2412,8 +2372,8 @@
       <c r="A139">
         <v>990</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>5</v>
+      <c r="B139" t="s">
+        <v>6</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2426,8 +2386,8 @@
       <c r="A140">
         <v>987</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>5</v>
+      <c r="B140" t="s">
+        <v>6</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2440,8 +2400,8 @@
       <c r="A141">
         <v>974</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>5</v>
+      <c r="B141" t="s">
+        <v>6</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2454,8 +2414,8 @@
       <c r="A142">
         <v>969</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>5</v>
+      <c r="B142" t="s">
+        <v>6</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2468,8 +2428,8 @@
       <c r="A143">
         <v>954</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>5</v>
+      <c r="B143" t="s">
+        <v>6</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2482,8 +2442,8 @@
       <c r="A144">
         <v>927</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>5</v>
+      <c r="B144" t="s">
+        <v>6</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2496,8 +2456,8 @@
       <c r="A145">
         <v>867</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>5</v>
+      <c r="B145" t="s">
+        <v>6</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2510,8 +2470,8 @@
       <c r="A146">
         <v>849</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>5</v>
+      <c r="B146" t="s">
+        <v>6</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2524,8 +2484,8 @@
       <c r="A147">
         <v>839</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>5</v>
+      <c r="B147" t="s">
+        <v>6</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2538,8 +2498,8 @@
       <c r="A148">
         <v>801</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>5</v>
+      <c r="B148" t="s">
+        <v>6</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2552,8 +2512,8 @@
       <c r="A149">
         <v>781</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>5</v>
+      <c r="B149" t="s">
+        <v>6</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2566,8 +2526,8 @@
       <c r="A150">
         <v>780</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>5</v>
+      <c r="B150" t="s">
+        <v>6</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2580,8 +2540,8 @@
       <c r="A151">
         <v>733</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>5</v>
+      <c r="B151" t="s">
+        <v>6</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2594,8 +2554,8 @@
       <c r="A152">
         <v>700</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>5</v>
+      <c r="B152" t="s">
+        <v>6</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2608,8 +2568,8 @@
       <c r="A153">
         <v>679</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>5</v>
+      <c r="B153" t="s">
+        <v>6</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2622,8 +2582,8 @@
       <c r="A154">
         <v>604</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>5</v>
+      <c r="B154" t="s">
+        <v>6</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2636,8 +2596,8 @@
       <c r="A155">
         <v>564</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>5</v>
+      <c r="B155" t="s">
+        <v>6</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2650,8 +2610,8 @@
       <c r="A156">
         <v>509</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>5</v>
+      <c r="B156" t="s">
+        <v>6</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2664,8 +2624,8 @@
       <c r="A157">
         <v>449</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>5</v>
+      <c r="B157" t="s">
+        <v>6</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2678,8 +2638,8 @@
       <c r="A158">
         <v>445</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>5</v>
+      <c r="B158" t="s">
+        <v>6</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2692,8 +2652,8 @@
       <c r="A159">
         <v>391</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>5</v>
+      <c r="B159" t="s">
+        <v>6</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2706,8 +2666,8 @@
       <c r="A160">
         <v>361</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>5</v>
+      <c r="B160" t="s">
+        <v>6</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2720,8 +2680,8 @@
       <c r="A161">
         <v>348</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>5</v>
+      <c r="B161" t="s">
+        <v>6</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2734,8 +2694,8 @@
       <c r="A162">
         <v>347</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>5</v>
+      <c r="B162" t="s">
+        <v>6</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2748,8 +2708,8 @@
       <c r="A163">
         <v>346</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>5</v>
+      <c r="B163" t="s">
+        <v>6</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2762,8 +2722,8 @@
       <c r="A164">
         <v>344</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>5</v>
+      <c r="B164" t="s">
+        <v>6</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2776,8 +2736,8 @@
       <c r="A165">
         <v>283</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>5</v>
+      <c r="B165" t="s">
+        <v>6</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2790,8 +2750,8 @@
       <c r="A166">
         <v>281</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>5</v>
+      <c r="B166" t="s">
+        <v>6</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2804,8 +2764,8 @@
       <c r="A167">
         <v>280</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>5</v>
+      <c r="B167" t="s">
+        <v>6</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2818,8 +2778,8 @@
       <c r="A168">
         <v>279</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>5</v>
+      <c r="B168" t="s">
+        <v>6</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2832,8 +2792,8 @@
       <c r="A169">
         <v>276</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>5</v>
+      <c r="B169" t="s">
+        <v>6</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2846,8 +2806,8 @@
       <c r="A170">
         <v>258</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>5</v>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2860,8 +2820,8 @@
       <c r="A171">
         <v>257</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>5</v>
+      <c r="B171" t="s">
+        <v>6</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2874,8 +2834,8 @@
       <c r="A172">
         <v>252</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>5</v>
+      <c r="B172" t="s">
+        <v>6</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2888,8 +2848,8 @@
       <c r="A173">
         <v>200</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>5</v>
+      <c r="B173" t="s">
+        <v>6</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2902,8 +2862,8 @@
       <c r="A174">
         <v>199</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>5</v>
+      <c r="B174" t="s">
+        <v>6</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2916,8 +2876,8 @@
       <c r="A175">
         <v>149</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>5</v>
+      <c r="B175" t="s">
+        <v>6</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2930,8 +2890,8 @@
       <c r="A176">
         <v>147</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>5</v>
+      <c r="B176" t="s">
+        <v>6</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2944,8 +2904,8 @@
       <c r="A177">
         <v>141</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>5</v>
+      <c r="B177" t="s">
+        <v>6</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2958,8 +2918,8 @@
       <c r="A178">
         <v>139</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>5</v>
+      <c r="B178" t="s">
+        <v>6</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2972,8 +2932,8 @@
       <c r="A179">
         <v>130</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>5</v>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2986,8 +2946,8 @@
       <c r="A180">
         <v>129</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3000,8 +2960,8 @@
       <c r="A181">
         <v>128</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>5</v>
+      <c r="B181" t="s">
+        <v>6</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3014,8 +2974,8 @@
       <c r="A182">
         <v>127</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>5</v>
+      <c r="B182" t="s">
+        <v>6</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3028,8 +2988,8 @@
       <c r="A183">
         <v>123</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>5</v>
+      <c r="B183" t="s">
+        <v>6</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3042,8 +3002,8 @@
       <c r="A184">
         <v>121</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>5</v>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3056,8 +3016,8 @@
       <c r="A185">
         <v>113</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>5</v>
+      <c r="B185" t="s">
+        <v>6</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3070,8 +3030,8 @@
       <c r="A186">
         <v>111</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
+      <c r="B186" t="s">
+        <v>6</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3084,8 +3044,8 @@
       <c r="A187">
         <v>110</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>5</v>
+      <c r="B187" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3098,8 +3058,8 @@
       <c r="A188">
         <v>108</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>5</v>
+      <c r="B188" t="s">
+        <v>6</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3112,8 +3072,8 @@
       <c r="A189">
         <v>105</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>5</v>
+      <c r="B189" t="s">
+        <v>6</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3126,8 +3086,8 @@
       <c r="A190">
         <v>104</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>5</v>
+      <c r="B190" t="s">
+        <v>6</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3140,8 +3100,8 @@
       <c r="A191">
         <v>103</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>5</v>
+      <c r="B191" t="s">
+        <v>6</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3154,8 +3114,8 @@
       <c r="A192">
         <v>102</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>5</v>
+      <c r="B192" t="s">
+        <v>6</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3168,8 +3128,8 @@
       <c r="A193">
         <v>78</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>5</v>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3182,8 +3142,8 @@
       <c r="A194">
         <v>50</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>6</v>
+      <c r="B194" t="s">
+        <v>7</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3196,8 +3156,8 @@
       <c r="A195">
         <v>72</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>6</v>
+      <c r="B195" t="s">
+        <v>7</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3210,8 +3170,8 @@
       <c r="A196">
         <v>846</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>6</v>
+      <c r="B196" t="s">
+        <v>7</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3224,8 +3184,8 @@
       <c r="A197">
         <v>990</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>6</v>
+      <c r="B197" t="s">
+        <v>7</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3238,8 +3198,8 @@
       <c r="A198">
         <v>987</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>6</v>
+      <c r="B198" t="s">
+        <v>7</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3252,8 +3212,8 @@
       <c r="A199">
         <v>974</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>6</v>
+      <c r="B199" t="s">
+        <v>7</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3266,8 +3226,8 @@
       <c r="A200">
         <v>969</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>6</v>
+      <c r="B200" t="s">
+        <v>7</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3280,8 +3240,8 @@
       <c r="A201">
         <v>954</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>6</v>
+      <c r="B201" t="s">
+        <v>7</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3294,8 +3254,8 @@
       <c r="A202">
         <v>927</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>6</v>
+      <c r="B202" t="s">
+        <v>7</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3308,8 +3268,8 @@
       <c r="A203">
         <v>867</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>6</v>
+      <c r="B203" t="s">
+        <v>7</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3322,8 +3282,8 @@
       <c r="A204">
         <v>849</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>6</v>
+      <c r="B204" t="s">
+        <v>7</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3336,8 +3296,8 @@
       <c r="A205">
         <v>839</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>6</v>
+      <c r="B205" t="s">
+        <v>7</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3350,8 +3310,8 @@
       <c r="A206">
         <v>801</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>6</v>
+      <c r="B206" t="s">
+        <v>7</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3364,8 +3324,8 @@
       <c r="A207">
         <v>781</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>6</v>
+      <c r="B207" t="s">
+        <v>7</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3378,8 +3338,8 @@
       <c r="A208">
         <v>780</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>6</v>
+      <c r="B208" t="s">
+        <v>7</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3392,8 +3352,8 @@
       <c r="A209">
         <v>733</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>6</v>
+      <c r="B209" t="s">
+        <v>7</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3406,8 +3366,8 @@
       <c r="A210">
         <v>700</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>6</v>
+      <c r="B210" t="s">
+        <v>7</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3420,8 +3380,8 @@
       <c r="A211">
         <v>679</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>6</v>
+      <c r="B211" t="s">
+        <v>7</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3434,8 +3394,8 @@
       <c r="A212">
         <v>604</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>6</v>
+      <c r="B212" t="s">
+        <v>7</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3448,8 +3408,8 @@
       <c r="A213">
         <v>564</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>6</v>
+      <c r="B213" t="s">
+        <v>7</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3462,8 +3422,8 @@
       <c r="A214">
         <v>509</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>6</v>
+      <c r="B214" t="s">
+        <v>7</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3476,8 +3436,8 @@
       <c r="A215">
         <v>449</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>6</v>
+      <c r="B215" t="s">
+        <v>7</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3490,8 +3450,8 @@
       <c r="A216">
         <v>445</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>6</v>
+      <c r="B216" t="s">
+        <v>7</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3504,8 +3464,8 @@
       <c r="A217">
         <v>391</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>6</v>
+      <c r="B217" t="s">
+        <v>7</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3518,8 +3478,8 @@
       <c r="A218">
         <v>361</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>6</v>
+      <c r="B218" t="s">
+        <v>7</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3532,8 +3492,8 @@
       <c r="A219">
         <v>348</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>6</v>
+      <c r="B219" t="s">
+        <v>7</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3546,8 +3506,8 @@
       <c r="A220">
         <v>347</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>6</v>
+      <c r="B220" t="s">
+        <v>7</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3560,8 +3520,8 @@
       <c r="A221">
         <v>346</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>6</v>
+      <c r="B221" t="s">
+        <v>7</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3574,8 +3534,8 @@
       <c r="A222">
         <v>344</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>6</v>
+      <c r="B222" t="s">
+        <v>7</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3588,8 +3548,8 @@
       <c r="A223">
         <v>283</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>6</v>
+      <c r="B223" t="s">
+        <v>7</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3602,8 +3562,8 @@
       <c r="A224">
         <v>281</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>6</v>
+      <c r="B224" t="s">
+        <v>7</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3616,8 +3576,8 @@
       <c r="A225">
         <v>280</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>6</v>
+      <c r="B225" t="s">
+        <v>7</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3630,8 +3590,8 @@
       <c r="A226">
         <v>279</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>6</v>
+      <c r="B226" t="s">
+        <v>7</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3644,8 +3604,8 @@
       <c r="A227">
         <v>276</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>6</v>
+      <c r="B227" t="s">
+        <v>7</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3658,8 +3618,8 @@
       <c r="A228">
         <v>258</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>6</v>
+      <c r="B228" t="s">
+        <v>7</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3672,8 +3632,8 @@
       <c r="A229">
         <v>257</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>6</v>
+      <c r="B229" t="s">
+        <v>7</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3686,8 +3646,8 @@
       <c r="A230">
         <v>252</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>6</v>
+      <c r="B230" t="s">
+        <v>7</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3700,8 +3660,8 @@
       <c r="A231">
         <v>200</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>6</v>
+      <c r="B231" t="s">
+        <v>7</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3714,8 +3674,8 @@
       <c r="A232">
         <v>199</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>6</v>
+      <c r="B232" t="s">
+        <v>7</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3728,8 +3688,8 @@
       <c r="A233">
         <v>149</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>6</v>
+      <c r="B233" t="s">
+        <v>7</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3742,8 +3702,8 @@
       <c r="A234">
         <v>147</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>6</v>
+      <c r="B234" t="s">
+        <v>7</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3756,8 +3716,8 @@
       <c r="A235">
         <v>141</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>6</v>
+      <c r="B235" t="s">
+        <v>7</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3770,8 +3730,8 @@
       <c r="A236">
         <v>139</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>6</v>
+      <c r="B236" t="s">
+        <v>7</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3784,8 +3744,8 @@
       <c r="A237">
         <v>130</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>6</v>
+      <c r="B237" t="s">
+        <v>7</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3798,8 +3758,8 @@
       <c r="A238">
         <v>129</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
+      <c r="B238" t="s">
+        <v>7</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3812,8 +3772,8 @@
       <c r="A239">
         <v>128</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>6</v>
+      <c r="B239" t="s">
+        <v>7</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3826,8 +3786,8 @@
       <c r="A240">
         <v>127</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>6</v>
+      <c r="B240" t="s">
+        <v>7</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3840,8 +3800,8 @@
       <c r="A241">
         <v>123</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>6</v>
+      <c r="B241" t="s">
+        <v>7</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3854,8 +3814,8 @@
       <c r="A242">
         <v>121</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>6</v>
+      <c r="B242" t="s">
+        <v>7</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3868,8 +3828,8 @@
       <c r="A243">
         <v>113</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>6</v>
+      <c r="B243" t="s">
+        <v>7</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3882,8 +3842,8 @@
       <c r="A244">
         <v>111</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>6</v>
+      <c r="B244" t="s">
+        <v>7</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3896,8 +3856,8 @@
       <c r="A245">
         <v>110</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>6</v>
+      <c r="B245" t="s">
+        <v>7</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3910,8 +3870,8 @@
       <c r="A246">
         <v>108</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>6</v>
+      <c r="B246" t="s">
+        <v>7</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3924,8 +3884,8 @@
       <c r="A247">
         <v>105</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>6</v>
+      <c r="B247" t="s">
+        <v>7</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3938,8 +3898,8 @@
       <c r="A248">
         <v>104</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>6</v>
+      <c r="B248" t="s">
+        <v>7</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3952,8 +3912,8 @@
       <c r="A249">
         <v>103</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>6</v>
+      <c r="B249" t="s">
+        <v>7</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3966,8 +3926,8 @@
       <c r="A250">
         <v>102</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>6</v>
+      <c r="B250" t="s">
+        <v>7</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3980,8 +3940,8 @@
       <c r="A251">
         <v>78</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>6</v>
+      <c r="B251" t="s">
+        <v>7</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3994,8 +3954,8 @@
       <c r="A252">
         <v>50</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>7</v>
+      <c r="B252" t="s">
+        <v>8</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4008,8 +3968,8 @@
       <c r="A253">
         <v>72</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>7</v>
+      <c r="B253" t="s">
+        <v>8</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4022,8 +3982,8 @@
       <c r="A254">
         <v>846</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>7</v>
+      <c r="B254" t="s">
+        <v>8</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4036,8 +3996,8 @@
       <c r="A255">
         <v>990</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>7</v>
+      <c r="B255" t="s">
+        <v>8</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4050,8 +4010,8 @@
       <c r="A256">
         <v>987</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>7</v>
+      <c r="B256" t="s">
+        <v>8</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4064,8 +4024,8 @@
       <c r="A257">
         <v>974</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>7</v>
+      <c r="B257" t="s">
+        <v>8</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4078,8 +4038,8 @@
       <c r="A258">
         <v>969</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>7</v>
+      <c r="B258" t="s">
+        <v>8</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4092,8 +4052,8 @@
       <c r="A259">
         <v>954</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>7</v>
+      <c r="B259" t="s">
+        <v>8</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4106,8 +4066,8 @@
       <c r="A260">
         <v>927</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>7</v>
+      <c r="B260" t="s">
+        <v>8</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4120,8 +4080,8 @@
       <c r="A261">
         <v>867</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>7</v>
+      <c r="B261" t="s">
+        <v>8</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4134,8 +4094,8 @@
       <c r="A262">
         <v>849</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>7</v>
+      <c r="B262" t="s">
+        <v>8</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4148,8 +4108,8 @@
       <c r="A263">
         <v>839</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>7</v>
+      <c r="B263" t="s">
+        <v>8</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4162,8 +4122,8 @@
       <c r="A264">
         <v>801</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>7</v>
+      <c r="B264" t="s">
+        <v>8</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4176,8 +4136,8 @@
       <c r="A265">
         <v>781</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>7</v>
+      <c r="B265" t="s">
+        <v>8</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4190,8 +4150,8 @@
       <c r="A266">
         <v>780</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>7</v>
+      <c r="B266" t="s">
+        <v>8</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4204,8 +4164,8 @@
       <c r="A267">
         <v>733</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>7</v>
+      <c r="B267" t="s">
+        <v>8</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4218,8 +4178,8 @@
       <c r="A268">
         <v>700</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>7</v>
+      <c r="B268" t="s">
+        <v>8</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4232,8 +4192,8 @@
       <c r="A269">
         <v>679</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>7</v>
+      <c r="B269" t="s">
+        <v>8</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4246,8 +4206,8 @@
       <c r="A270">
         <v>604</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>7</v>
+      <c r="B270" t="s">
+        <v>8</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4260,8 +4220,8 @@
       <c r="A271">
         <v>564</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>7</v>
+      <c r="B271" t="s">
+        <v>8</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4274,8 +4234,8 @@
       <c r="A272">
         <v>509</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>7</v>
+      <c r="B272" t="s">
+        <v>8</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4288,8 +4248,8 @@
       <c r="A273">
         <v>449</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>7</v>
+      <c r="B273" t="s">
+        <v>8</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4302,8 +4262,8 @@
       <c r="A274">
         <v>445</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>7</v>
+      <c r="B274" t="s">
+        <v>8</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4316,8 +4276,8 @@
       <c r="A275">
         <v>391</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>7</v>
+      <c r="B275" t="s">
+        <v>8</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4330,8 +4290,8 @@
       <c r="A276">
         <v>361</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>7</v>
+      <c r="B276" t="s">
+        <v>8</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4344,8 +4304,8 @@
       <c r="A277">
         <v>348</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>7</v>
+      <c r="B277" t="s">
+        <v>8</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4358,8 +4318,8 @@
       <c r="A278">
         <v>347</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>7</v>
+      <c r="B278" t="s">
+        <v>8</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4372,8 +4332,8 @@
       <c r="A279">
         <v>346</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>7</v>
+      <c r="B279" t="s">
+        <v>8</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4386,8 +4346,8 @@
       <c r="A280">
         <v>344</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>7</v>
+      <c r="B280" t="s">
+        <v>8</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4400,8 +4360,8 @@
       <c r="A281">
         <v>283</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>7</v>
+      <c r="B281" t="s">
+        <v>8</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4414,8 +4374,8 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>7</v>
+      <c r="B282" t="s">
+        <v>8</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4428,8 +4388,8 @@
       <c r="A283">
         <v>280</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>7</v>
+      <c r="B283" t="s">
+        <v>8</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4442,8 +4402,8 @@
       <c r="A284">
         <v>279</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>7</v>
+      <c r="B284" t="s">
+        <v>8</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4456,8 +4416,8 @@
       <c r="A285">
         <v>276</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>7</v>
+      <c r="B285" t="s">
+        <v>8</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4470,8 +4430,8 @@
       <c r="A286">
         <v>258</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>7</v>
+      <c r="B286" t="s">
+        <v>8</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4484,8 +4444,8 @@
       <c r="A287">
         <v>257</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>7</v>
+      <c r="B287" t="s">
+        <v>8</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4498,8 +4458,8 @@
       <c r="A288">
         <v>252</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>7</v>
+      <c r="B288" t="s">
+        <v>8</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -4512,8 +4472,8 @@
       <c r="A289">
         <v>200</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>7</v>
+      <c r="B289" t="s">
+        <v>8</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4526,8 +4486,8 @@
       <c r="A290">
         <v>199</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>7</v>
+      <c r="B290" t="s">
+        <v>8</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -4540,8 +4500,8 @@
       <c r="A291">
         <v>149</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>7</v>
+      <c r="B291" t="s">
+        <v>8</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4554,8 +4514,8 @@
       <c r="A292">
         <v>147</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>7</v>
+      <c r="B292" t="s">
+        <v>8</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -4568,8 +4528,8 @@
       <c r="A293">
         <v>141</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>7</v>
+      <c r="B293" t="s">
+        <v>8</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4582,8 +4542,8 @@
       <c r="A294">
         <v>139</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>7</v>
+      <c r="B294" t="s">
+        <v>8</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -4596,8 +4556,8 @@
       <c r="A295">
         <v>130</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>7</v>
+      <c r="B295" t="s">
+        <v>8</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4610,8 +4570,8 @@
       <c r="A296">
         <v>129</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>7</v>
+      <c r="B296" t="s">
+        <v>8</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4624,8 +4584,8 @@
       <c r="A297">
         <v>128</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>7</v>
+      <c r="B297" t="s">
+        <v>8</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4638,8 +4598,8 @@
       <c r="A298">
         <v>127</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>7</v>
+      <c r="B298" t="s">
+        <v>8</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4652,8 +4612,8 @@
       <c r="A299">
         <v>123</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>7</v>
+      <c r="B299" t="s">
+        <v>8</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4666,8 +4626,8 @@
       <c r="A300">
         <v>121</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>7</v>
+      <c r="B300" t="s">
+        <v>8</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4680,8 +4640,8 @@
       <c r="A301">
         <v>113</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>7</v>
+      <c r="B301" t="s">
+        <v>8</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4694,8 +4654,8 @@
       <c r="A302">
         <v>111</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>7</v>
+      <c r="B302" t="s">
+        <v>8</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4708,8 +4668,8 @@
       <c r="A303">
         <v>110</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>7</v>
+      <c r="B303" t="s">
+        <v>8</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4722,8 +4682,8 @@
       <c r="A304">
         <v>108</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>7</v>
+      <c r="B304" t="s">
+        <v>8</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4736,8 +4696,8 @@
       <c r="A305">
         <v>105</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>7</v>
+      <c r="B305" t="s">
+        <v>8</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4750,8 +4710,8 @@
       <c r="A306">
         <v>104</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>7</v>
+      <c r="B306" t="s">
+        <v>8</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4764,8 +4724,8 @@
       <c r="A307">
         <v>103</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>7</v>
+      <c r="B307" t="s">
+        <v>8</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4778,8 +4738,8 @@
       <c r="A308">
         <v>102</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>7</v>
+      <c r="B308" t="s">
+        <v>8</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4792,8 +4752,8 @@
       <c r="A309">
         <v>78</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>7</v>
+      <c r="B309" t="s">
+        <v>8</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4806,7 +4766,7 @@
       <c r="A310">
         <v>50</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" t="s">
         <v>9</v>
       </c>
       <c r="C310">
@@ -4820,7 +4780,7 @@
       <c r="A311">
         <v>72</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" t="s">
         <v>9</v>
       </c>
       <c r="C311">
@@ -4834,7 +4794,7 @@
       <c r="A312">
         <v>846</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" t="s">
         <v>9</v>
       </c>
       <c r="C312">
@@ -4848,7 +4808,7 @@
       <c r="A313">
         <v>990</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" t="s">
         <v>9</v>
       </c>
       <c r="C313">
@@ -4862,7 +4822,7 @@
       <c r="A314">
         <v>987</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" t="s">
         <v>9</v>
       </c>
       <c r="C314">
@@ -4876,7 +4836,7 @@
       <c r="A315">
         <v>974</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" t="s">
         <v>9</v>
       </c>
       <c r="C315">
@@ -4890,7 +4850,7 @@
       <c r="A316">
         <v>969</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" t="s">
         <v>9</v>
       </c>
       <c r="C316">
@@ -4904,7 +4864,7 @@
       <c r="A317">
         <v>954</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" t="s">
         <v>9</v>
       </c>
       <c r="C317">
@@ -4918,7 +4878,7 @@
       <c r="A318">
         <v>927</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" t="s">
         <v>9</v>
       </c>
       <c r="C318">
@@ -4932,7 +4892,7 @@
       <c r="A319">
         <v>867</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" t="s">
         <v>9</v>
       </c>
       <c r="C319">
@@ -4946,7 +4906,7 @@
       <c r="A320">
         <v>849</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" t="s">
         <v>9</v>
       </c>
       <c r="C320">
@@ -4960,7 +4920,7 @@
       <c r="A321">
         <v>839</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" t="s">
         <v>9</v>
       </c>
       <c r="C321">
@@ -4974,7 +4934,7 @@
       <c r="A322">
         <v>801</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322">
@@ -4988,7 +4948,7 @@
       <c r="A323">
         <v>781</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" t="s">
         <v>9</v>
       </c>
       <c r="C323">
@@ -5002,7 +4962,7 @@
       <c r="A324">
         <v>780</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" t="s">
         <v>9</v>
       </c>
       <c r="C324">
@@ -5016,7 +4976,7 @@
       <c r="A325">
         <v>733</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" t="s">
         <v>9</v>
       </c>
       <c r="C325">
@@ -5030,7 +4990,7 @@
       <c r="A326">
         <v>700</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" t="s">
         <v>9</v>
       </c>
       <c r="C326">
@@ -5044,7 +5004,7 @@
       <c r="A327">
         <v>679</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" t="s">
         <v>9</v>
       </c>
       <c r="C327">
@@ -5058,7 +5018,7 @@
       <c r="A328">
         <v>604</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" t="s">
         <v>9</v>
       </c>
       <c r="C328">
@@ -5072,7 +5032,7 @@
       <c r="A329">
         <v>564</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" t="s">
         <v>9</v>
       </c>
       <c r="C329">
@@ -5086,7 +5046,7 @@
       <c r="A330">
         <v>509</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" t="s">
         <v>9</v>
       </c>
       <c r="C330">
@@ -5100,7 +5060,7 @@
       <c r="A331">
         <v>449</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" t="s">
         <v>9</v>
       </c>
       <c r="C331">
@@ -5114,7 +5074,7 @@
       <c r="A332">
         <v>445</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" t="s">
         <v>9</v>
       </c>
       <c r="C332">
@@ -5128,7 +5088,7 @@
       <c r="A333">
         <v>391</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" t="s">
         <v>9</v>
       </c>
       <c r="C333">
@@ -5142,7 +5102,7 @@
       <c r="A334">
         <v>361</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" t="s">
         <v>9</v>
       </c>
       <c r="C334">
@@ -5156,7 +5116,7 @@
       <c r="A335">
         <v>348</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" t="s">
         <v>9</v>
       </c>
       <c r="C335">
@@ -5170,7 +5130,7 @@
       <c r="A336">
         <v>347</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" t="s">
         <v>9</v>
       </c>
       <c r="C336">
@@ -5184,7 +5144,7 @@
       <c r="A337">
         <v>346</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" t="s">
         <v>9</v>
       </c>
       <c r="C337">
@@ -5198,7 +5158,7 @@
       <c r="A338">
         <v>344</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" t="s">
         <v>9</v>
       </c>
       <c r="C338">
@@ -5212,7 +5172,7 @@
       <c r="A339">
         <v>283</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" t="s">
         <v>9</v>
       </c>
       <c r="C339">
@@ -5226,7 +5186,7 @@
       <c r="A340">
         <v>281</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" t="s">
         <v>9</v>
       </c>
       <c r="C340">
@@ -5240,7 +5200,7 @@
       <c r="A341">
         <v>280</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" t="s">
         <v>9</v>
       </c>
       <c r="C341">
@@ -5254,7 +5214,7 @@
       <c r="A342">
         <v>279</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" t="s">
         <v>9</v>
       </c>
       <c r="C342">
@@ -5268,7 +5228,7 @@
       <c r="A343">
         <v>276</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" t="s">
         <v>9</v>
       </c>
       <c r="C343">
@@ -5282,7 +5242,7 @@
       <c r="A344">
         <v>258</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" t="s">
         <v>9</v>
       </c>
       <c r="C344">
@@ -5296,7 +5256,7 @@
       <c r="A345">
         <v>257</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" t="s">
         <v>9</v>
       </c>
       <c r="C345">
@@ -5310,7 +5270,7 @@
       <c r="A346">
         <v>252</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" t="s">
         <v>9</v>
       </c>
       <c r="C346">
@@ -5324,7 +5284,7 @@
       <c r="A347">
         <v>200</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" t="s">
         <v>9</v>
       </c>
       <c r="C347">
@@ -5338,7 +5298,7 @@
       <c r="A348">
         <v>199</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" t="s">
         <v>9</v>
       </c>
       <c r="C348">
@@ -5352,7 +5312,7 @@
       <c r="A349">
         <v>149</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" t="s">
         <v>9</v>
       </c>
       <c r="C349">
@@ -5366,7 +5326,7 @@
       <c r="A350">
         <v>147</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" t="s">
         <v>9</v>
       </c>
       <c r="C350">
@@ -5380,7 +5340,7 @@
       <c r="A351">
         <v>141</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" t="s">
         <v>9</v>
       </c>
       <c r="C351">
@@ -5394,7 +5354,7 @@
       <c r="A352">
         <v>139</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" t="s">
         <v>9</v>
       </c>
       <c r="C352">
@@ -5408,7 +5368,7 @@
       <c r="A353">
         <v>130</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" t="s">
         <v>9</v>
       </c>
       <c r="C353">
@@ -5422,7 +5382,7 @@
       <c r="A354">
         <v>129</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" t="s">
         <v>9</v>
       </c>
       <c r="C354">
@@ -5436,7 +5396,7 @@
       <c r="A355">
         <v>128</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" t="s">
         <v>9</v>
       </c>
       <c r="C355">
@@ -5450,7 +5410,7 @@
       <c r="A356">
         <v>127</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" t="s">
         <v>9</v>
       </c>
       <c r="C356">
@@ -5464,7 +5424,7 @@
       <c r="A357">
         <v>123</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" t="s">
         <v>9</v>
       </c>
       <c r="C357">
@@ -5478,7 +5438,7 @@
       <c r="A358">
         <v>121</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" t="s">
         <v>9</v>
       </c>
       <c r="C358">
@@ -5492,7 +5452,7 @@
       <c r="A359">
         <v>113</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" t="s">
         <v>9</v>
       </c>
       <c r="C359">
@@ -5506,7 +5466,7 @@
       <c r="A360">
         <v>111</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" t="s">
         <v>9</v>
       </c>
       <c r="C360">
@@ -5520,7 +5480,7 @@
       <c r="A361">
         <v>110</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" t="s">
         <v>9</v>
       </c>
       <c r="C361">
@@ -5534,7 +5494,7 @@
       <c r="A362">
         <v>108</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" t="s">
         <v>9</v>
       </c>
       <c r="C362">
@@ -5548,7 +5508,7 @@
       <c r="A363">
         <v>105</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" t="s">
         <v>9</v>
       </c>
       <c r="C363">
@@ -5562,7 +5522,7 @@
       <c r="A364">
         <v>104</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" t="s">
         <v>9</v>
       </c>
       <c r="C364">
@@ -5576,7 +5536,7 @@
       <c r="A365">
         <v>103</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" t="s">
         <v>9</v>
       </c>
       <c r="C365">
@@ -5590,7 +5550,7 @@
       <c r="A366">
         <v>102</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" t="s">
         <v>9</v>
       </c>
       <c r="C366">
@@ -5604,7 +5564,7 @@
       <c r="A367">
         <v>78</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" t="s">
         <v>9</v>
       </c>
       <c r="C367">
@@ -5618,7 +5578,7 @@
       <c r="A368">
         <v>50</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" t="s">
         <v>10</v>
       </c>
       <c r="C368">
@@ -5632,7 +5592,7 @@
       <c r="A369">
         <v>72</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" t="s">
         <v>10</v>
       </c>
       <c r="C369">
@@ -5646,7 +5606,7 @@
       <c r="A370">
         <v>846</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" t="s">
         <v>10</v>
       </c>
       <c r="C370">
@@ -5660,7 +5620,7 @@
       <c r="A371">
         <v>990</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" t="s">
         <v>10</v>
       </c>
       <c r="C371">
@@ -5674,7 +5634,7 @@
       <c r="A372">
         <v>987</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B372" t="s">
         <v>10</v>
       </c>
       <c r="C372">
@@ -5688,7 +5648,7 @@
       <c r="A373">
         <v>974</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" t="s">
         <v>10</v>
       </c>
       <c r="C373">
@@ -5702,7 +5662,7 @@
       <c r="A374">
         <v>969</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" t="s">
         <v>10</v>
       </c>
       <c r="C374">
@@ -5716,7 +5676,7 @@
       <c r="A375">
         <v>954</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" t="s">
         <v>10</v>
       </c>
       <c r="C375">
@@ -5730,7 +5690,7 @@
       <c r="A376">
         <v>927</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" t="s">
         <v>10</v>
       </c>
       <c r="C376">
@@ -5744,7 +5704,7 @@
       <c r="A377">
         <v>867</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" t="s">
         <v>10</v>
       </c>
       <c r="C377">
@@ -5758,7 +5718,7 @@
       <c r="A378">
         <v>849</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" t="s">
         <v>10</v>
       </c>
       <c r="C378">
@@ -5772,7 +5732,7 @@
       <c r="A379">
         <v>839</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" t="s">
         <v>10</v>
       </c>
       <c r="C379">
@@ -5786,7 +5746,7 @@
       <c r="A380">
         <v>801</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" t="s">
         <v>10</v>
       </c>
       <c r="C380">
@@ -5800,7 +5760,7 @@
       <c r="A381">
         <v>781</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" t="s">
         <v>10</v>
       </c>
       <c r="C381">
@@ -5814,7 +5774,7 @@
       <c r="A382">
         <v>780</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" t="s">
         <v>10</v>
       </c>
       <c r="C382">
@@ -5828,7 +5788,7 @@
       <c r="A383">
         <v>733</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" t="s">
         <v>10</v>
       </c>
       <c r="C383">
@@ -5842,7 +5802,7 @@
       <c r="A384">
         <v>700</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" t="s">
         <v>10</v>
       </c>
       <c r="C384">
@@ -5856,7 +5816,7 @@
       <c r="A385">
         <v>679</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" t="s">
         <v>10</v>
       </c>
       <c r="C385">
@@ -5870,7 +5830,7 @@
       <c r="A386">
         <v>604</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B386" t="s">
         <v>10</v>
       </c>
       <c r="C386">
@@ -5884,7 +5844,7 @@
       <c r="A387">
         <v>564</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" t="s">
         <v>10</v>
       </c>
       <c r="C387">
@@ -5898,7 +5858,7 @@
       <c r="A388">
         <v>509</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" t="s">
         <v>10</v>
       </c>
       <c r="C388">
@@ -5912,7 +5872,7 @@
       <c r="A389">
         <v>449</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B389" t="s">
         <v>10</v>
       </c>
       <c r="C389">
@@ -5926,7 +5886,7 @@
       <c r="A390">
         <v>445</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B390" t="s">
         <v>10</v>
       </c>
       <c r="C390">
@@ -5940,7 +5900,7 @@
       <c r="A391">
         <v>391</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B391" t="s">
         <v>10</v>
       </c>
       <c r="C391">
@@ -5954,7 +5914,7 @@
       <c r="A392">
         <v>361</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="B392" t="s">
         <v>10</v>
       </c>
       <c r="C392">
@@ -5968,7 +5928,7 @@
       <c r="A393">
         <v>348</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="B393" t="s">
         <v>10</v>
       </c>
       <c r="C393">
@@ -5982,7 +5942,7 @@
       <c r="A394">
         <v>347</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" t="s">
         <v>10</v>
       </c>
       <c r="C394">
@@ -5996,7 +5956,7 @@
       <c r="A395">
         <v>346</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="B395" t="s">
         <v>10</v>
       </c>
       <c r="C395">
@@ -6010,7 +5970,7 @@
       <c r="A396">
         <v>344</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="B396" t="s">
         <v>10</v>
       </c>
       <c r="C396">
@@ -6024,7 +5984,7 @@
       <c r="A397">
         <v>283</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B397" t="s">
         <v>10</v>
       </c>
       <c r="C397">
@@ -6038,7 +5998,7 @@
       <c r="A398">
         <v>281</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B398" t="s">
         <v>10</v>
       </c>
       <c r="C398">
@@ -6052,7 +6012,7 @@
       <c r="A399">
         <v>280</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="B399" t="s">
         <v>10</v>
       </c>
       <c r="C399">
@@ -6066,7 +6026,7 @@
       <c r="A400">
         <v>279</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" t="s">
         <v>10</v>
       </c>
       <c r="C400">
@@ -6080,7 +6040,7 @@
       <c r="A401">
         <v>276</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401" t="s">
         <v>10</v>
       </c>
       <c r="C401">
@@ -6094,7 +6054,7 @@
       <c r="A402">
         <v>258</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" t="s">
         <v>10</v>
       </c>
       <c r="C402">
@@ -6108,7 +6068,7 @@
       <c r="A403">
         <v>257</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" t="s">
         <v>10</v>
       </c>
       <c r="C403">
@@ -6122,7 +6082,7 @@
       <c r="A404">
         <v>252</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B404" t="s">
         <v>10</v>
       </c>
       <c r="C404">
@@ -6136,7 +6096,7 @@
       <c r="A405">
         <v>200</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="B405" t="s">
         <v>10</v>
       </c>
       <c r="C405">
@@ -6150,7 +6110,7 @@
       <c r="A406">
         <v>199</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" t="s">
         <v>10</v>
       </c>
       <c r="C406">
@@ -6164,7 +6124,7 @@
       <c r="A407">
         <v>149</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" t="s">
         <v>10</v>
       </c>
       <c r="C407">
@@ -6178,7 +6138,7 @@
       <c r="A408">
         <v>147</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="B408" t="s">
         <v>10</v>
       </c>
       <c r="C408">
@@ -6192,7 +6152,7 @@
       <c r="A409">
         <v>141</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="B409" t="s">
         <v>10</v>
       </c>
       <c r="C409">
@@ -6206,7 +6166,7 @@
       <c r="A410">
         <v>139</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B410" t="s">
         <v>10</v>
       </c>
       <c r="C410">
@@ -6220,7 +6180,7 @@
       <c r="A411">
         <v>130</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B411" t="s">
         <v>10</v>
       </c>
       <c r="C411">
@@ -6234,7 +6194,7 @@
       <c r="A412">
         <v>129</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="B412" t="s">
         <v>10</v>
       </c>
       <c r="C412">
@@ -6248,7 +6208,7 @@
       <c r="A413">
         <v>128</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" t="s">
         <v>10</v>
       </c>
       <c r="C413">
@@ -6262,7 +6222,7 @@
       <c r="A414">
         <v>127</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" t="s">
         <v>10</v>
       </c>
       <c r="C414">
@@ -6276,7 +6236,7 @@
       <c r="A415">
         <v>123</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B415" t="s">
         <v>10</v>
       </c>
       <c r="C415">
@@ -6290,7 +6250,7 @@
       <c r="A416">
         <v>121</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" t="s">
         <v>10</v>
       </c>
       <c r="C416">
@@ -6304,7 +6264,7 @@
       <c r="A417">
         <v>113</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B417" t="s">
         <v>10</v>
       </c>
       <c r="C417">
@@ -6318,7 +6278,7 @@
       <c r="A418">
         <v>111</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B418" t="s">
         <v>10</v>
       </c>
       <c r="C418">
@@ -6332,7 +6292,7 @@
       <c r="A419">
         <v>110</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="B419" t="s">
         <v>10</v>
       </c>
       <c r="C419">
@@ -6346,7 +6306,7 @@
       <c r="A420">
         <v>108</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="B420" t="s">
         <v>10</v>
       </c>
       <c r="C420">
@@ -6360,7 +6320,7 @@
       <c r="A421">
         <v>105</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="B421" t="s">
         <v>10</v>
       </c>
       <c r="C421">
@@ -6374,7 +6334,7 @@
       <c r="A422">
         <v>104</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B422" t="s">
         <v>10</v>
       </c>
       <c r="C422">
@@ -6388,7 +6348,7 @@
       <c r="A423">
         <v>103</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B423" t="s">
         <v>10</v>
       </c>
       <c r="C423">
@@ -6402,7 +6362,7 @@
       <c r="A424">
         <v>102</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" t="s">
         <v>10</v>
       </c>
       <c r="C424">
@@ -6416,7 +6376,7 @@
       <c r="A425">
         <v>78</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B425" t="s">
         <v>10</v>
       </c>
       <c r="C425">
@@ -6430,7 +6390,7 @@
       <c r="A426">
         <v>50</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" t="s">
         <v>11</v>
       </c>
       <c r="C426">
@@ -6444,7 +6404,7 @@
       <c r="A427">
         <v>72</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B427" t="s">
         <v>11</v>
       </c>
       <c r="C427">
@@ -6458,7 +6418,7 @@
       <c r="A428">
         <v>846</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" t="s">
         <v>11</v>
       </c>
       <c r="C428">
@@ -6472,7 +6432,7 @@
       <c r="A429">
         <v>990</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B429" t="s">
         <v>11</v>
       </c>
       <c r="C429">
@@ -6486,7 +6446,7 @@
       <c r="A430">
         <v>987</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B430" t="s">
         <v>11</v>
       </c>
       <c r="C430">
@@ -6500,7 +6460,7 @@
       <c r="A431">
         <v>974</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B431" t="s">
         <v>11</v>
       </c>
       <c r="C431">
@@ -6514,7 +6474,7 @@
       <c r="A432">
         <v>969</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B432" t="s">
         <v>11</v>
       </c>
       <c r="C432">
@@ -6528,7 +6488,7 @@
       <c r="A433">
         <v>954</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B433" t="s">
         <v>11</v>
       </c>
       <c r="C433">
@@ -6542,7 +6502,7 @@
       <c r="A434">
         <v>927</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B434" t="s">
         <v>11</v>
       </c>
       <c r="C434">
@@ -6556,7 +6516,7 @@
       <c r="A435">
         <v>867</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B435" t="s">
         <v>11</v>
       </c>
       <c r="C435">
@@ -6570,7 +6530,7 @@
       <c r="A436">
         <v>849</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" t="s">
         <v>11</v>
       </c>
       <c r="C436">
@@ -6584,7 +6544,7 @@
       <c r="A437">
         <v>839</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="B437" t="s">
         <v>11</v>
       </c>
       <c r="C437">
@@ -6598,7 +6558,7 @@
       <c r="A438">
         <v>801</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B438" t="s">
         <v>11</v>
       </c>
       <c r="C438">
@@ -6612,7 +6572,7 @@
       <c r="A439">
         <v>781</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" t="s">
         <v>11</v>
       </c>
       <c r="C439">
@@ -6626,7 +6586,7 @@
       <c r="A440">
         <v>780</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B440" t="s">
         <v>11</v>
       </c>
       <c r="C440">
@@ -6640,7 +6600,7 @@
       <c r="A441">
         <v>733</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B441" t="s">
         <v>11</v>
       </c>
       <c r="C441">
@@ -6654,7 +6614,7 @@
       <c r="A442">
         <v>700</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B442" t="s">
         <v>11</v>
       </c>
       <c r="C442">
@@ -6668,7 +6628,7 @@
       <c r="A443">
         <v>679</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B443" t="s">
         <v>11</v>
       </c>
       <c r="C443">
@@ -6682,7 +6642,7 @@
       <c r="A444">
         <v>604</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B444" t="s">
         <v>11</v>
       </c>
       <c r="C444">
@@ -6696,7 +6656,7 @@
       <c r="A445">
         <v>564</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B445" t="s">
         <v>11</v>
       </c>
       <c r="C445">
@@ -6710,7 +6670,7 @@
       <c r="A446">
         <v>509</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" t="s">
         <v>11</v>
       </c>
       <c r="C446">
@@ -6724,7 +6684,7 @@
       <c r="A447">
         <v>449</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B447" t="s">
         <v>11</v>
       </c>
       <c r="C447">
@@ -6738,7 +6698,7 @@
       <c r="A448">
         <v>445</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B448" t="s">
         <v>11</v>
       </c>
       <c r="C448">
@@ -6752,7 +6712,7 @@
       <c r="A449">
         <v>391</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B449" t="s">
         <v>11</v>
       </c>
       <c r="C449">
@@ -6766,7 +6726,7 @@
       <c r="A450">
         <v>361</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B450" t="s">
         <v>11</v>
       </c>
       <c r="C450">
@@ -6780,7 +6740,7 @@
       <c r="A451">
         <v>348</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B451" t="s">
         <v>11</v>
       </c>
       <c r="C451">
@@ -6794,7 +6754,7 @@
       <c r="A452">
         <v>347</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B452" t="s">
         <v>11</v>
       </c>
       <c r="C452">
@@ -6808,7 +6768,7 @@
       <c r="A453">
         <v>346</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" t="s">
         <v>11</v>
       </c>
       <c r="C453">
@@ -6822,7 +6782,7 @@
       <c r="A454">
         <v>344</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B454" t="s">
         <v>11</v>
       </c>
       <c r="C454">
@@ -6836,7 +6796,7 @@
       <c r="A455">
         <v>283</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B455" t="s">
         <v>11</v>
       </c>
       <c r="C455">
@@ -6850,7 +6810,7 @@
       <c r="A456">
         <v>281</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B456" t="s">
         <v>11</v>
       </c>
       <c r="C456">
@@ -6864,7 +6824,7 @@
       <c r="A457">
         <v>280</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B457" t="s">
         <v>11</v>
       </c>
       <c r="C457">
@@ -6878,7 +6838,7 @@
       <c r="A458">
         <v>279</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B458" t="s">
         <v>11</v>
       </c>
       <c r="C458">
@@ -6892,7 +6852,7 @@
       <c r="A459">
         <v>276</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B459" t="s">
         <v>11</v>
       </c>
       <c r="C459">
@@ -6906,7 +6866,7 @@
       <c r="A460">
         <v>258</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B460" t="s">
         <v>11</v>
       </c>
       <c r="C460">
@@ -6920,7 +6880,7 @@
       <c r="A461">
         <v>257</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B461" t="s">
         <v>11</v>
       </c>
       <c r="C461">
@@ -6934,7 +6894,7 @@
       <c r="A462">
         <v>252</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B462" t="s">
         <v>11</v>
       </c>
       <c r="C462">
@@ -6948,7 +6908,7 @@
       <c r="A463">
         <v>200</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B463" t="s">
         <v>11</v>
       </c>
       <c r="C463">
@@ -6962,7 +6922,7 @@
       <c r="A464">
         <v>199</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B464" t="s">
         <v>11</v>
       </c>
       <c r="C464">
@@ -6976,7 +6936,7 @@
       <c r="A465">
         <v>149</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B465" t="s">
         <v>11</v>
       </c>
       <c r="C465">
@@ -6990,7 +6950,7 @@
       <c r="A466">
         <v>147</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B466" t="s">
         <v>11</v>
       </c>
       <c r="C466">
@@ -7004,7 +6964,7 @@
       <c r="A467">
         <v>141</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B467" t="s">
         <v>11</v>
       </c>
       <c r="C467">
@@ -7018,7 +6978,7 @@
       <c r="A468">
         <v>139</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B468" t="s">
         <v>11</v>
       </c>
       <c r="C468">
@@ -7032,7 +6992,7 @@
       <c r="A469">
         <v>130</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" t="s">
         <v>11</v>
       </c>
       <c r="C469">
@@ -7046,7 +7006,7 @@
       <c r="A470">
         <v>129</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" t="s">
         <v>11</v>
       </c>
       <c r="C470">
@@ -7060,7 +7020,7 @@
       <c r="A471">
         <v>128</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" t="s">
         <v>11</v>
       </c>
       <c r="C471">
@@ -7074,7 +7034,7 @@
       <c r="A472">
         <v>127</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" t="s">
         <v>11</v>
       </c>
       <c r="C472">
@@ -7088,7 +7048,7 @@
       <c r="A473">
         <v>123</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" t="s">
         <v>11</v>
       </c>
       <c r="C473">
@@ -7102,7 +7062,7 @@
       <c r="A474">
         <v>121</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" t="s">
         <v>11</v>
       </c>
       <c r="C474">
@@ -7116,7 +7076,7 @@
       <c r="A475">
         <v>113</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" t="s">
         <v>11</v>
       </c>
       <c r="C475">
@@ -7130,7 +7090,7 @@
       <c r="A476">
         <v>111</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B476" t="s">
         <v>11</v>
       </c>
       <c r="C476">
@@ -7144,7 +7104,7 @@
       <c r="A477">
         <v>110</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B477" t="s">
         <v>11</v>
       </c>
       <c r="C477">
@@ -7158,7 +7118,7 @@
       <c r="A478">
         <v>108</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B478" t="s">
         <v>11</v>
       </c>
       <c r="C478">
@@ -7172,7 +7132,7 @@
       <c r="A479">
         <v>105</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B479" t="s">
         <v>11</v>
       </c>
       <c r="C479">
@@ -7186,7 +7146,7 @@
       <c r="A480">
         <v>104</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B480" t="s">
         <v>11</v>
       </c>
       <c r="C480">
@@ -7200,7 +7160,7 @@
       <c r="A481">
         <v>103</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B481" t="s">
         <v>11</v>
       </c>
       <c r="C481">
@@ -7214,7 +7174,7 @@
       <c r="A482">
         <v>102</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B482" t="s">
         <v>11</v>
       </c>
       <c r="C482">
@@ -7228,7 +7188,7 @@
       <c r="A483">
         <v>78</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B483" t="s">
         <v>11</v>
       </c>
       <c r="C483">
@@ -7242,7 +7202,7 @@
       <c r="A484">
         <v>50</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B484" t="s">
         <v>12</v>
       </c>
       <c r="C484">
@@ -7256,7 +7216,7 @@
       <c r="A485">
         <v>72</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B485" t="s">
         <v>12</v>
       </c>
       <c r="C485">
@@ -7270,7 +7230,7 @@
       <c r="A486">
         <v>846</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B486" t="s">
         <v>12</v>
       </c>
       <c r="C486">
@@ -7284,7 +7244,7 @@
       <c r="A487">
         <v>990</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B487" t="s">
         <v>12</v>
       </c>
       <c r="C487">
@@ -7298,7 +7258,7 @@
       <c r="A488">
         <v>987</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B488" t="s">
         <v>12</v>
       </c>
       <c r="C488">
@@ -7312,7 +7272,7 @@
       <c r="A489">
         <v>974</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B489" t="s">
         <v>12</v>
       </c>
       <c r="C489">
@@ -7326,7 +7286,7 @@
       <c r="A490">
         <v>969</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B490" t="s">
         <v>12</v>
       </c>
       <c r="C490">
@@ -7340,7 +7300,7 @@
       <c r="A491">
         <v>954</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B491" t="s">
         <v>12</v>
       </c>
       <c r="C491">
@@ -7354,7 +7314,7 @@
       <c r="A492">
         <v>927</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B492" t="s">
         <v>12</v>
       </c>
       <c r="C492">
@@ -7368,7 +7328,7 @@
       <c r="A493">
         <v>867</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B493" t="s">
         <v>12</v>
       </c>
       <c r="C493">
@@ -7382,7 +7342,7 @@
       <c r="A494">
         <v>849</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B494" t="s">
         <v>12</v>
       </c>
       <c r="C494">
@@ -7396,7 +7356,7 @@
       <c r="A495">
         <v>839</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B495" t="s">
         <v>12</v>
       </c>
       <c r="C495">
@@ -7410,7 +7370,7 @@
       <c r="A496">
         <v>801</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B496" t="s">
         <v>12</v>
       </c>
       <c r="C496">
@@ -7424,7 +7384,7 @@
       <c r="A497">
         <v>781</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B497" t="s">
         <v>12</v>
       </c>
       <c r="C497">
@@ -7438,7 +7398,7 @@
       <c r="A498">
         <v>780</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B498" t="s">
         <v>12</v>
       </c>
       <c r="C498">
@@ -7452,7 +7412,7 @@
       <c r="A499">
         <v>733</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B499" t="s">
         <v>12</v>
       </c>
       <c r="C499">
@@ -7466,7 +7426,7 @@
       <c r="A500">
         <v>700</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B500" t="s">
         <v>12</v>
       </c>
       <c r="C500">
@@ -7480,7 +7440,7 @@
       <c r="A501">
         <v>679</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B501" t="s">
         <v>12</v>
       </c>
       <c r="C501">
@@ -7494,7 +7454,7 @@
       <c r="A502">
         <v>604</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B502" t="s">
         <v>12</v>
       </c>
       <c r="C502">
@@ -7508,7 +7468,7 @@
       <c r="A503">
         <v>564</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B503" t="s">
         <v>12</v>
       </c>
       <c r="C503">
@@ -7522,7 +7482,7 @@
       <c r="A504">
         <v>509</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B504" t="s">
         <v>12</v>
       </c>
       <c r="C504">
@@ -7536,7 +7496,7 @@
       <c r="A505">
         <v>449</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="B505" t="s">
         <v>12</v>
       </c>
       <c r="C505">
@@ -7550,7 +7510,7 @@
       <c r="A506">
         <v>445</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B506" t="s">
         <v>12</v>
       </c>
       <c r="C506">
@@ -7564,7 +7524,7 @@
       <c r="A507">
         <v>391</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B507" t="s">
         <v>12</v>
       </c>
       <c r="C507">
@@ -7578,7 +7538,7 @@
       <c r="A508">
         <v>361</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B508" t="s">
         <v>12</v>
       </c>
       <c r="C508">
@@ -7592,7 +7552,7 @@
       <c r="A509">
         <v>348</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B509" t="s">
         <v>12</v>
       </c>
       <c r="C509">
@@ -7606,7 +7566,7 @@
       <c r="A510">
         <v>347</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B510" t="s">
         <v>12</v>
       </c>
       <c r="C510">
@@ -7620,7 +7580,7 @@
       <c r="A511">
         <v>346</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B511" t="s">
         <v>12</v>
       </c>
       <c r="C511">
@@ -7634,7 +7594,7 @@
       <c r="A512">
         <v>344</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B512" t="s">
         <v>12</v>
       </c>
       <c r="C512">
@@ -7648,7 +7608,7 @@
       <c r="A513">
         <v>283</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B513" t="s">
         <v>12</v>
       </c>
       <c r="C513">
@@ -7662,7 +7622,7 @@
       <c r="A514">
         <v>281</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B514" t="s">
         <v>12</v>
       </c>
       <c r="C514">
@@ -7676,7 +7636,7 @@
       <c r="A515">
         <v>280</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B515" t="s">
         <v>12</v>
       </c>
       <c r="C515">
@@ -7690,7 +7650,7 @@
       <c r="A516">
         <v>279</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B516" t="s">
         <v>12</v>
       </c>
       <c r="C516">
@@ -7704,7 +7664,7 @@
       <c r="A517">
         <v>276</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B517" t="s">
         <v>12</v>
       </c>
       <c r="C517">
@@ -7718,7 +7678,7 @@
       <c r="A518">
         <v>258</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B518" t="s">
         <v>12</v>
       </c>
       <c r="C518">
@@ -7732,7 +7692,7 @@
       <c r="A519">
         <v>257</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B519" t="s">
         <v>12</v>
       </c>
       <c r="C519">
@@ -7746,7 +7706,7 @@
       <c r="A520">
         <v>252</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B520" t="s">
         <v>12</v>
       </c>
       <c r="C520">
@@ -7760,7 +7720,7 @@
       <c r="A521">
         <v>200</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B521" t="s">
         <v>12</v>
       </c>
       <c r="C521">
@@ -7774,7 +7734,7 @@
       <c r="A522">
         <v>199</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B522" t="s">
         <v>12</v>
       </c>
       <c r="C522">
@@ -7788,7 +7748,7 @@
       <c r="A523">
         <v>149</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B523" t="s">
         <v>12</v>
       </c>
       <c r="C523">
@@ -7802,7 +7762,7 @@
       <c r="A524">
         <v>147</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B524" t="s">
         <v>12</v>
       </c>
       <c r="C524">
@@ -7816,7 +7776,7 @@
       <c r="A525">
         <v>141</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B525" t="s">
         <v>12</v>
       </c>
       <c r="C525">
@@ -7830,7 +7790,7 @@
       <c r="A526">
         <v>139</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B526" t="s">
         <v>12</v>
       </c>
       <c r="C526">
@@ -7844,7 +7804,7 @@
       <c r="A527">
         <v>130</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B527" t="s">
         <v>12</v>
       </c>
       <c r="C527">
@@ -7858,7 +7818,7 @@
       <c r="A528">
         <v>129</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B528" t="s">
         <v>12</v>
       </c>
       <c r="C528">
@@ -7872,7 +7832,7 @@
       <c r="A529">
         <v>128</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B529" t="s">
         <v>12</v>
       </c>
       <c r="C529">
@@ -7886,7 +7846,7 @@
       <c r="A530">
         <v>127</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B530" t="s">
         <v>12</v>
       </c>
       <c r="C530">
@@ -7900,7 +7860,7 @@
       <c r="A531">
         <v>123</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B531" t="s">
         <v>12</v>
       </c>
       <c r="C531">
@@ -7914,7 +7874,7 @@
       <c r="A532">
         <v>121</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B532" t="s">
         <v>12</v>
       </c>
       <c r="C532">
@@ -7928,7 +7888,7 @@
       <c r="A533">
         <v>113</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B533" t="s">
         <v>12</v>
       </c>
       <c r="C533">
@@ -7942,7 +7902,7 @@
       <c r="A534">
         <v>111</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B534" t="s">
         <v>12</v>
       </c>
       <c r="C534">
@@ -7956,7 +7916,7 @@
       <c r="A535">
         <v>110</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B535" t="s">
         <v>12</v>
       </c>
       <c r="C535">
@@ -7970,7 +7930,7 @@
       <c r="A536">
         <v>108</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B536" t="s">
         <v>12</v>
       </c>
       <c r="C536">
@@ -7984,7 +7944,7 @@
       <c r="A537">
         <v>105</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B537" t="s">
         <v>12</v>
       </c>
       <c r="C537">
@@ -7998,7 +7958,7 @@
       <c r="A538">
         <v>104</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B538" t="s">
         <v>12</v>
       </c>
       <c r="C538">
@@ -8012,7 +7972,7 @@
       <c r="A539">
         <v>103</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B539" t="s">
         <v>12</v>
       </c>
       <c r="C539">
@@ -8026,7 +7986,7 @@
       <c r="A540">
         <v>102</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B540" t="s">
         <v>12</v>
       </c>
       <c r="C540">
@@ -8040,7 +8000,7 @@
       <c r="A541">
         <v>78</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B541" t="s">
         <v>12</v>
       </c>
       <c r="C541">
@@ -8054,8 +8014,8 @@
       <c r="A542">
         <v>166</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>5</v>
+      <c r="B542" t="s">
+        <v>6</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -8068,8 +8028,8 @@
       <c r="A543">
         <v>166</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>7</v>
+      <c r="B543" t="s">
+        <v>8</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8082,7 +8042,7 @@
       <c r="A544">
         <v>166</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B544" t="s">
         <v>9</v>
       </c>
       <c r="C544">
@@ -8096,7 +8056,7 @@
       <c r="A545">
         <v>166</v>
       </c>
-      <c r="B545" s="1" t="s">
+      <c r="B545" t="s">
         <v>10</v>
       </c>
       <c r="C545">
@@ -8110,7 +8070,7 @@
       <c r="A546">
         <v>166</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="B546" t="s">
         <v>11</v>
       </c>
       <c r="C546">
@@ -8124,7 +8084,7 @@
       <c r="A547">
         <v>166</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="B547" t="s">
         <v>12</v>
       </c>
       <c r="C547">
@@ -8138,8 +8098,8 @@
       <c r="A548">
         <v>167</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>5</v>
+      <c r="B548" t="s">
+        <v>6</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -8152,8 +8112,8 @@
       <c r="A549">
         <v>167</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>7</v>
+      <c r="B549" t="s">
+        <v>8</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -8166,7 +8126,7 @@
       <c r="A550">
         <v>167</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="B550" t="s">
         <v>9</v>
       </c>
       <c r="C550">
@@ -8180,7 +8140,7 @@
       <c r="A551">
         <v>167</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" t="s">
         <v>10</v>
       </c>
       <c r="C551">
@@ -8194,7 +8154,7 @@
       <c r="A552">
         <v>167</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="B552" t="s">
         <v>11</v>
       </c>
       <c r="C552">
@@ -8208,7 +8168,7 @@
       <c r="A553">
         <v>167</v>
       </c>
-      <c r="B553" s="1" t="s">
+      <c r="B553" t="s">
         <v>12</v>
       </c>
       <c r="C553">
@@ -8220,7 +8180,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D553" xr:uid="{C837C365-D34A-4912-94AB-D015CA4B2981}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Pricing dysfunction detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C88D7F-7426-4E74-8315-49FD2C1F69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F217803-CA14-4A8A-A7F4-1704B1826C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFDD67D4-6BED-4EAC-BB48-86C517912453}"/>
   </bookViews>
@@ -42,31 +42,31 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>DG</t>
+    <t xml:space="preserve">Dynamic Gold </t>
   </si>
   <si>
-    <t>DC</t>
+    <t>Dynamic Classic</t>
   </si>
   <si>
-    <t>SICCH</t>
+    <t>Signature Infinite CCH</t>
   </si>
   <si>
-    <t>DT</t>
+    <t xml:space="preserve">Dynamic Titanium </t>
   </si>
   <si>
-    <t>SPCCH</t>
+    <t>Signature Platinium CCH</t>
   </si>
   <si>
-    <t>SICEDC</t>
+    <t>Signature Infinite CEDC</t>
   </si>
   <si>
-    <t>SG</t>
+    <t>Signature Gold</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>Signature Titanium</t>
   </si>
   <si>
-    <t>SPCEDC</t>
+    <t>Signature Platinium CEDC</t>
   </si>
 </sst>
 </file>
